--- a/docs/wcdo_sitemap.xlsx
+++ b/docs/wcdo_sitemap.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10307"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcmiquel\Desktop\codi temp\apps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Google Drive/diversity observatory/github/WCDO/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77195FB4-2F04-7549-88B2-BE7CBEAEE89C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28680" yWindow="-9756" windowWidth="28644" windowHeight="21144"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wmflabs.org" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="96">
   <si>
     <t>Category</t>
   </si>
@@ -69,9 +70,6 @@
     <t>Main page</t>
   </si>
   <si>
-    <t>All Wikipedias CCC</t>
-  </si>
-  <si>
     <t>CREATED MANUALLY</t>
   </si>
   <si>
@@ -126,24 +124,9 @@
     <t>Wikipedia_Cultural_Diversity_Observatory/Geolocated_articles</t>
   </si>
   <si>
-    <t>/list_of_wikipedias_by_cultural_context_content</t>
-  </si>
-  <si>
-    <t>Map</t>
-  </si>
-  <si>
     <t>Table</t>
   </si>
   <si>
-    <t>/geolocated_articles_map/set=?</t>
-  </si>
-  <si>
-    <t>/ccc_geolocated_articles_map/set=?</t>
-  </si>
-  <si>
-    <t>/all_wikipedias_ccc/set=?</t>
-  </si>
-  <si>
     <t>Languages CCC Top articles lists (coverage)</t>
   </si>
   <si>
@@ -159,78 +142,30 @@
     <t>Set</t>
   </si>
   <si>
-    <t>langcode, wikidata qitems</t>
-  </si>
-  <si>
     <t>langcode</t>
   </si>
   <si>
-    <t>langcode, wikidata, all wikipedia articles, etc.</t>
-  </si>
-  <si>
-    <t>Multiple viz showing main territories, men-women, keywords, geolocated, etc.</t>
-  </si>
-  <si>
     <t>all wikipedia language editions</t>
   </si>
   <si>
     <t>GEOLOCATED</t>
   </si>
   <si>
-    <t>GEOLOCATED - CCC</t>
-  </si>
-  <si>
     <t>Viz type</t>
   </si>
   <si>
-    <t>CCC Pageviews</t>
-  </si>
-  <si>
     <t>Pie Chart, Table</t>
   </si>
   <si>
     <t>What is the weight of CCC, other's CCC, and top vital articles pageviews last month in this language edition?</t>
   </si>
   <si>
-    <t>/last_month/set=?</t>
-  </si>
-  <si>
-    <t>CCC Geolocated articles map</t>
-  </si>
-  <si>
-    <t>Geolocated articles map</t>
-  </si>
-  <si>
-    <t>Treemap</t>
-  </si>
-  <si>
     <t>LANGUAGE GAP</t>
   </si>
   <si>
     <t>Language Gap</t>
   </si>
   <si>
-    <t>/language_gap/set=?</t>
-  </si>
-  <si>
-    <t>/ccc_coverage/set=?</t>
-  </si>
-  <si>
-    <t>/ccc_spread/set=?</t>
-  </si>
-  <si>
-    <t>/ccc_coverage_over_time/set=?</t>
-  </si>
-  <si>
-    <t>List of Language Territories by CCC</t>
-  </si>
-  <si>
-    <t>/list_of_language_territories_by_cultural_context_content</t>
-  </si>
-  <si>
-    <t>/ccc_pageviews</t>
-  </si>
-  <si>
     <t>/languages_ccc_top_articles_lists_coverage/set=?</t>
   </si>
   <si>
@@ -252,30 +187,9 @@
     <t>meta.wikimedia.org</t>
   </si>
   <si>
-    <t>/ccc_article_search/</t>
-  </si>
-  <si>
-    <t>CCC Article Search</t>
-  </si>
-  <si>
     <t>Various</t>
   </si>
   <si>
-    <t>Table, Map</t>
-  </si>
-  <si>
-    <t>Geolocated articles coverage</t>
-  </si>
-  <si>
-    <t>/geolocated_articles_coverage/set=?</t>
-  </si>
-  <si>
-    <t>CCC Topics</t>
-  </si>
-  <si>
-    <t>/ccc_topics/</t>
-  </si>
-  <si>
     <t>/wikipedia_language_editions/</t>
   </si>
   <si>
@@ -288,12 +202,6 @@
     <t>3D</t>
   </si>
   <si>
-    <t>CCC Overlap</t>
-  </si>
-  <si>
-    <t>/ccc_overlap/</t>
-  </si>
-  <si>
     <t>CCC Spread</t>
   </si>
   <si>
@@ -303,18 +211,9 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>/gender/</t>
-  </si>
-  <si>
     <t>Top CCC articles</t>
   </si>
   <si>
-    <t>Top CCC articles diff</t>
-  </si>
-  <si>
-    <t>/top_ccc_articles_diff/</t>
-  </si>
-  <si>
     <t>CCC Editors</t>
   </si>
   <si>
@@ -333,46 +232,94 @@
     <t>/missing_CCC/</t>
   </si>
   <si>
-    <t>Missing Wikipedia Language Editions</t>
-  </si>
-  <si>
-    <t>/missing_wikipedia_language_editions/</t>
-  </si>
-  <si>
-    <t>CCC Coverage over time</t>
-  </si>
-  <si>
     <t>MONITORING</t>
   </si>
   <si>
-    <t>Geolocated articles over time</t>
-  </si>
-  <si>
-    <t>Last Month article creation</t>
-  </si>
-  <si>
-    <t>/geolocated_articles_over_time/</t>
-  </si>
-  <si>
-    <t>CCC over time</t>
-  </si>
-  <si>
-    <t>/ccc_over_time/</t>
-  </si>
-  <si>
-    <t>Wikidata query CCC</t>
-  </si>
-  <si>
-    <t>/wikidata_query_CCC/</t>
-  </si>
-  <si>
     <t>App Number</t>
+  </si>
+  <si>
+    <t>Developed</t>
+  </si>
+  <si>
+    <t>/serch_ccc_article/</t>
+  </si>
+  <si>
+    <t>Incomplete CCC</t>
+  </si>
+  <si>
+    <t>/incomplete_ccc_articles/</t>
+  </si>
+  <si>
+    <t>Common CCC</t>
+  </si>
+  <si>
+    <t>Visual CCC</t>
+  </si>
+  <si>
+    <t>/visual_ccc_articles/</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>/gender_gap/</t>
+  </si>
+  <si>
+    <t>/common_ccc_articles/</t>
+  </si>
+  <si>
+    <t>Last month pageviews</t>
+  </si>
+  <si>
+    <t>VARIOUS</t>
+  </si>
+  <si>
+    <t>Geograpy Gap</t>
+  </si>
+  <si>
+    <t>/geography_gap/</t>
+  </si>
+  <si>
+    <t>/language_gap/</t>
+  </si>
+  <si>
+    <t>/cultural_context_content/</t>
+  </si>
+  <si>
+    <t>/monthly_created_articles</t>
+  </si>
+  <si>
+    <t>/last_month_pageviews</t>
+  </si>
+  <si>
+    <t>/ccc_coverage/</t>
+  </si>
+  <si>
+    <t>/ccc_spread/</t>
+  </si>
+  <si>
+    <t>Monthly Created Articles</t>
+  </si>
+  <si>
+    <t>Search CCC Articles</t>
+  </si>
+  <si>
+    <t>/topical_coverage/</t>
+  </si>
+  <si>
+    <t>Acumulated Articles Over Time</t>
+  </si>
+  <si>
+    <t>/accumulated_articles_over_time</t>
+  </si>
+  <si>
+    <t>Topical Coverage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -489,7 +436,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -519,6 +466,30 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -602,19 +573,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:G49" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowCellStyle="Normal">
-  <autoFilter ref="A2:G49"/>
-  <sortState ref="A3:G49">
-    <sortCondition ref="B2:B49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A2:H42" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="Normal">
+  <autoFilter ref="A2:H42" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState ref="A3:H42">
+    <sortCondition ref="B2:B42"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Topic" dataDxfId="6"/>
-    <tableColumn id="2" name="App Number" dataDxfId="5"/>
-    <tableColumn id="3" name="TITLE" dataDxfId="4"/>
-    <tableColumn id="4" name="URL" dataDxfId="3"/>
-    <tableColumn id="5" name="Viz type" dataDxfId="2"/>
-    <tableColumn id="6" name="Set" dataDxfId="1"/>
-    <tableColumn id="7" name="Question" dataDxfId="0"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Topic" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="App Number" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="TITLE" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{A837BB80-A5B3-1A48-9210-C7EE186CB85A}" name="Developed" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="URL" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Viz type" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Set" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Question" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -916,60 +888,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="97" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.796875" customWidth="1"/>
-    <col min="2" max="2" width="10.796875" customWidth="1"/>
-    <col min="3" max="3" width="36.796875" customWidth="1"/>
-    <col min="4" max="4" width="67.5" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="94" customWidth="1"/>
-    <col min="8" max="8" width="15.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="36.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="67.5" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="94" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>51</v>
-      </c>
       <c r="F2" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -977,16 +953,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -996,35 +975,37 @@
       <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="5"/>
+      <c r="D4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>66</v>
+        <v>82</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1032,20 +1013,23 @@
         <v>4</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
@@ -1053,60 +1037,69 @@
         <v>5</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="B8" s="5">
         <v>6</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>67</v>
+        <v>80</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5">
         <v>7</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>85</v>
+        <v>61</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>4</v>
       </c>
@@ -1114,18 +1107,21 @@
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>68</v>
+        <v>33</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>4</v>
       </c>
@@ -1133,18 +1129,21 @@
         <v>9</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>69</v>
+        <v>34</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>4</v>
       </c>
@@ -1152,593 +1151,517 @@
         <v>10</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>70</v>
+        <v>35</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5">
         <v>11</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B14" s="5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>82</v>
+        <v>60</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>59</v>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="B15" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>83</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D15" s="12"/>
       <c r="E15" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>50</v>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="B16" s="5">
+        <v>14</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="5">
+        <v>15</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="5">
         <v>16</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="5">
-        <v>17</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="5">
-        <v>18</v>
-      </c>
       <c r="C18" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>36</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D18" s="12"/>
       <c r="E18" s="5" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="5">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>38</v>
+        <v>91</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
-        <v>105</v>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>4</v>
       </c>
       <c r="B20" s="5">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>55</v>
+        <v>72</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="B21" s="5">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="5">
+        <v>27</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="5">
-        <v>23</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="D22" s="12"/>
       <c r="E22" s="5" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B23" s="5">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" s="5">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="5">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="5">
-        <v>27</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>99</v>
-      </c>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="5">
-        <v>28</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>101</v>
-      </c>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="5">
-        <v>29</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="5">
-        <v>30</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>110</v>
-      </c>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="5">
-        <v>31</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>108</v>
-      </c>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="5">
-        <v>32</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="5">
-        <v>33</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="5"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="5"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="5"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="5"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="5"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="5"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="12"/>
-      <c r="D39" s="5"/>
+      <c r="D39" s="12"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="5"/>
+      <c r="D40" s="12"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="5"/>
+      <c r="D41" s="12"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="12"/>
-      <c r="D42" s="5"/>
+      <c r="D42" s="12"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" s="5"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="2"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
-      <c r="C58" s="6"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+      <c r="D63" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1750,53 +1673,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.796875" customWidth="1"/>
-    <col min="2" max="2" width="3.69921875" customWidth="1"/>
-    <col min="3" max="3" width="36.796875" customWidth="1"/>
-    <col min="4" max="4" width="85.69921875" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36.83203125" customWidth="1"/>
+    <col min="4" max="4" width="85.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1804,10 +1727,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1815,10 +1738,10 @@
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1826,10 +1749,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1837,32 +1760,32 @@
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1871,10 +1794,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -1883,10 +1806,10 @@
         <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1894,86 +1817,86 @@
         <v>7</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="6"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>

--- a/docs/wcdo_sitemap.xlsx
+++ b/docs/wcdo_sitemap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcmiquel/Google Drive/diversity observatory/github/WCDO/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77195FB4-2F04-7549-88B2-BE7CBEAEE89C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F53B49-C7EE-1548-8FD4-E4943E422509}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3020" yWindow="1780" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wmflabs.org" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="95">
   <si>
     <t>Category</t>
   </si>
@@ -286,9 +286,6 @@
     <t>/cultural_context_content/</t>
   </si>
   <si>
-    <t>/monthly_created_articles</t>
-  </si>
-  <si>
     <t>/last_month_pageviews</t>
   </si>
   <si>
@@ -298,22 +295,22 @@
     <t>/ccc_spread/</t>
   </si>
   <si>
-    <t>Monthly Created Articles</t>
-  </si>
-  <si>
     <t>Search CCC Articles</t>
   </si>
   <si>
     <t>/topical_coverage/</t>
   </si>
   <si>
-    <t>Acumulated Articles Over Time</t>
-  </si>
-  <si>
-    <t>/accumulated_articles_over_time</t>
-  </si>
-  <si>
     <t>Topical Coverage</t>
+  </si>
+  <si>
+    <t>/diversity_over_time</t>
+  </si>
+  <si>
+    <t>Diversity Over Time</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -573,10 +570,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A2:H42" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="Normal">
-  <autoFilter ref="A2:H42" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState ref="A3:H42">
-    <sortCondition ref="B2:B42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A2:H41" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="Normal">
+  <autoFilter ref="A2:H41" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState ref="A3:H41">
+    <sortCondition ref="B2:B41"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Topic" dataDxfId="7"/>
@@ -889,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1019,7 +1016,7 @@
         <v>77</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>32</v>
@@ -1043,7 +1040,7 @@
         <v>77</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>32</v>
@@ -1065,7 +1062,7 @@
         <v>77</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>42</v>
@@ -1211,11 +1208,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="12"/>
+        <v>93</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="E15" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>53</v>
@@ -1231,13 +1230,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>77</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>53</v>
@@ -1266,21 +1265,23 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>68</v>
+      <c r="A18" s="14" t="s">
+        <v>4</v>
       </c>
       <c r="B18" s="5">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="12"/>
+        <v>89</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="E18" s="5" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -1290,38 +1291,36 @@
         <v>4</v>
       </c>
       <c r="B19" s="5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>77</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>32</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -1332,14 +1331,16 @@
         <v>5</v>
       </c>
       <c r="B21" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="12"/>
+        <v>64</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="E21" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -1347,17 +1348,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B22" s="5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="E22" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -1365,19 +1368,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B23" s="5">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>77</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -1388,43 +1391,33 @@
         <v>5</v>
       </c>
       <c r="B24" s="5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>77</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="5">
-        <v>33</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="A25" s="18"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -1543,7 +1536,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="12"/>
@@ -1573,7 +1566,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="12"/>
@@ -1583,25 +1576,20 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
@@ -1657,11 +1645,6 @@
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
